--- a/本地play_UI _easySoftWare/test_cases/魔乐社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/魔乐社区UI自动化测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="16575" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="14055" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="190">
   <si>
     <t>测试案例名称</t>
   </si>
@@ -1289,6 +1289,17 @@
   </si>
   <si>
     <t>登录环境(a18801113053,liuyu!198)
+退出登录</t>
+  </si>
+  <si>
+    <t>modelers-个人中心-收藏/取消收藏</t>
+  </si>
+  <si>
+    <t>登录环境(a18801113053,liuyu!198)
+鼠标悬停在个人头像上
+进入个人中心
+修改用户头像(upload_images\abc1.png)
+修改用户头像(upload_images\abc2.png)
 退出登录</t>
   </si>
 </sst>
@@ -2265,7 +2276,7 @@
   <sheetPr/>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2472,8 +2483,8 @@
   <sheetPr/>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="316" customHeight="1" outlineLevelCol="2"/>
@@ -3267,13 +3278,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B8"/>
+  <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="51.625" customWidth="1"/>
     <col min="2" max="2" width="73.75" customWidth="1"/>
@@ -3327,12 +3338,28 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:2">
+    <row r="8" ht="60" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="9" ht="112" customHeight="1" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" ht="118" customHeight="1" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/本地play_UI _easySoftWare/test_cases/魔乐社区UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/魔乐社区UI自动化测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="14055" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="196">
   <si>
     <t>测试案例名称</t>
   </si>
@@ -39,254 +39,205 @@
     <t>操作步骤</t>
   </si>
   <si>
-    <t>软件中心-主页-软件中心-主页-搜索</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页搜索(全部,mysql)
-主页搜索(按名称,mq)
-主页搜索(按概要,mysq11l)
-主页搜索(按文件,222)
-主页搜索(ubuntu,30)</t>
-  </si>
-  <si>
-    <t>软件中心-主页-软件中心-主页-搜索无结果</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页搜索无结果(全部,222)</t>
-  </si>
-  <si>
-    <t>软件中心-主页-软件中心-主页-了解更多跳转验证</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页了解更多跳转(云服务)
-主页了解更多跳转(数据库)
-主页了解更多跳转(AI)
-主页了解更多跳转(大数据)
-主页了解更多跳转(HPC)
-主页了解更多跳转(分布式存储)
-主页了解更多跳转(其他)</t>
-  </si>
-  <si>
-    <t>软件中心-主页-软件中心-主页-资源跳转验证</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页获取资源跳转(领域应用)
-主页获取资源跳转(RPM)
-主页获取资源跳转(应用镜像)
-主页获取资源跳转(OEPKG)
-主页解决方案跳转(OpenStack)
-主页解决方案跳转(OpenHPC)</t>
-  </si>
-  <si>
-    <t>软件中心-主页-软件中心-主页-社区版本下载验证</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页资源下载(openEuler-24.03-LTS)</t>
-  </si>
-  <si>
-    <t>软件中心-主页-openEuler社区版本-点击跳转验证-1</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页选择openEuler软件包(openEuler-24.03-LTS,领域应用,noarch)
-主页选择openEuler软件包(openEuler-20.03-LTS-SP4,RPM,aarch64)</t>
-  </si>
-  <si>
-    <t>软件中心-主页-openEuler社区版本-点击跳转验证-2</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页选择openEuler软件包(openEuler-22.03-LTS-SP2,RPM,noarch)</t>
-  </si>
-  <si>
-    <t>软件中心-应用领域-搜索和下载</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入领域应用
-领域应用页面选择版本架构和领域(openEuler-22.03-LTS,x86_64,AI|云服务|大数据)
-领域应用页面搜索(b)
-领域应用页面查询结果排序(按首字母)
-领域应用页面查询结果排序(综合排序)
-领域应用页面查询结果分页(24条/页)
-领域应用页面查询结果切页(2)
-领域应用页面查询结果详情(b)</t>
-  </si>
-  <si>
-    <t>软件中心-RPM-搜索和下载</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入RPM页面
-RPM页面选择版本架构和领域(openEuler-23.09,x86_64,AI|其他)
-RPM页面搜索(b)
-RPM页面查询结果排序(按首字母)
-RPM页面查询结果排序(综合排序)
-RPM页面查询结果分页(20条/页)
-RPM页面查询结果切页(4)
-RPM页面查询结果详情(b)</t>
-  </si>
-  <si>
-    <t>软件中心-应用镜像-搜索和复制</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入应用镜像页面
-应用镜像页面选择版本架构和领域(openEuler-22.03-LTS-SP3,x86_64|aarch64,AI|其他|云服务|数据库)
-应用镜像页面搜索(l)
-应用镜像页面查询结果排序(按首字母)
-应用镜像页面查询结果排序(综合排序)
-应用镜像页面查询结果分页(10条/页)
-应用镜像页面查询结果切页(2)
-应用镜像页面查询结果详情(l)</t>
-  </si>
-  <si>
-    <t>软件中心-OEPKG-搜索和下载</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入OEPKG页面
-OEPKG页面选择版本架构和领域(openEuler-24.03-LTS,x86_64,其他)
-OEPKG页面搜索(m)
-OEPKG页面查询结果排序(按首字母)
-OEPKG页面查询结果排序(综合排序)
-OEPKG页面查询结果分页(40条/页)
-OEPKG页面查询结果切页(6)
-OEPKG页面查询结果详情(m)</t>
-  </si>
-  <si>
-    <t>软件中心-软件包详情-快速反馈</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入OEPKG页面
-OEPKG页面选择版本架构和领域(openEuler-24.03-LTS,x86_64,其他)
-OEPKG页面搜索(m)
-OEPKG页面查询结果排序(按首字母)
-OEPKG页面查询结果排序(综合排序)
-OEPKG页面查询结果分页(40条/页)
-OEPKG页面查询结果切页(6)
-OEPKG页面查询结果详情(m)
-软件包详情页面下载
-软件包详情页面反馈(3,测试反馈,快速反馈)</t>
-  </si>
-  <si>
-    <t>软件中心-软件包详情-提交issue</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入OEPKG页面
-OEPKG页面选择版本架构和领域(openEuler-24.03-LTS,x86_64,其他)
-OEPKG页面搜索(m)
-OEPKG页面查询结果排序(按首字母)
-OEPKG页面查询结果排序(综合排序)
-OEPKG页面查询结果分页(40条/页)
-OEPKG页面查询结果切页(6)
-OEPKG页面查询结果详情(m)
-软件包详情页面下载
-软件包详情页面反馈(5,测试反馈,提交issue)</t>
-  </si>
-  <si>
-    <t>软件中心-主页-悬浮窗反馈</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页登录(18048976612,675912zl.@)
-主页悬浮窗反馈(5,测试反馈)</t>
-  </si>
-  <si>
-    <t>软件中心-协作平台-反馈后撤销</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页登录(18048976612,675912zl.@)
-进入协作平台
-协作平台反馈(Bear,测试反馈内容)
-进入待办中心
-撤销申请(Bear)</t>
-  </si>
-  <si>
-    <t>软件中心-协作平台-反馈历史</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页登录(18048976612,675912zl.@)
-进入协作平台
-协作平台反馈历史(Bear)</t>
-  </si>
-  <si>
-    <t>软件中心-协作平台-审批通过</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页登录(18048976612,675912zl.@)
-进入协作平台
-协作平台反馈(Bear,测试反馈内容)
-进入待办中心
-审批通过(Bear,测试通过申请)</t>
-  </si>
-  <si>
-    <t>软件中心-协作平台-审批不通过</t>
-  </si>
-  <si>
-    <t xml:space="preserve">进入生产环境
-主页登录(18048976612,675912zl.@)
-进入协作平台
-协作平台反馈(Bear,测试反馈内容)
-进入待办中心
-审批不通过(Bear,测试不通过申请)
-</t>
-  </si>
-  <si>
-    <t>软件中心-协作平台-申请详情</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页登录(18048976612,675912zl.@)
-进入协作平台
-进入待办中心
-查看申请详情(Bear)</t>
-  </si>
-  <si>
-    <t>软件中心-协作平台-审批详情</t>
-  </si>
-  <si>
-    <t xml:space="preserve">进入生产环境
-主页登录(18048976612,675912zl.@)
-进入协作平台
-进入待办中心
-查看审批详情
-</t>
-  </si>
-  <si>
-    <t>软件中心-协作平台-软件仓库筛选和重置</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页登录(18048976612,675912zl.@)
-进入协作平台
-软件仓库筛选重置(xdg-dbus-proxy)
-软件仓库筛选重置(aries-blueprint-parser)
-软件仓库筛选重置(rdiff-backup)
-软件仓库筛选重置(lksctp-tools)</t>
-  </si>
-  <si>
-    <t>软件中心-协作平台-待办中心筛选和重置</t>
-  </si>
-  <si>
-    <t>进入生产环境
-主页登录(18048976612,675912zl.@)
-进入协作平台
-进入待办中心
-待办中心筛选重置(ranger)
-待办中心筛选重置(R-knitr)
-待办中心筛选重置(python-cairosvg)
-待办中心筛选重置(Bear)</t>
+    <t>modelers-账号功能-登录功能正常</t>
+  </si>
+  <si>
+    <t>首次登录环境(a18801113053,liuyu!198)</t>
+  </si>
+  <si>
+    <t>modelers-账号功能-登录后退出登录正常</t>
+  </si>
+  <si>
+    <t>登录环境(a18801113053,liuyu!198)
+退出登录</t>
+  </si>
+  <si>
+    <t>modelers-模型-创建公开模型并删除</t>
+  </si>
+  <si>
+    <t>登录环境(a18801113053,liuyu!198)
+鼠标悬停在个人头像上
+悬停方式创建模型(gongyoumoxing,公开模型,公开模型,mit)
+删除当前模型
+退出登录</t>
+  </si>
+  <si>
+    <t>modelers-模型-创建公开模型改为私有并删除</t>
+  </si>
+  <si>
+    <t>登录环境(a18801113053,liuyu!198)
+鼠标悬停在个人头像上
+悬停方式创建模型(gongyoumoxing1,公开模型,公开模型,mit)
+修改当前模型私有
+删除当前模型
+退出登录</t>
+  </si>
+  <si>
+    <t>modelers-讨论区-创建公开模型创建评论回复并删除</t>
+  </si>
+  <si>
+    <t>登录环境(a18801113053,liuyu!198)
+鼠标悬停在个人头像上
+悬停方式创建模型(gongyoumoxing2,公开模型,公开模型,mit)
+创建讨论(测试评论标题,测试评论内容)
+回复讨论(测试评论标题,测试回复内容)
+删除当前模型
+退出登录</t>
+  </si>
+  <si>
+    <t>modelers-讨论区-创建公开模型创建评论关闭并删除</t>
+  </si>
+  <si>
+    <t>登录环境(a18801113053,liuyu!198)
+鼠标悬停在个人头像上
+悬停方式创建模型(gongyoumoxing3,公开模型,公开模型,mit)
+创建讨论(测试评论标题,测试评论内容)
+关闭讨论(测试评论标题)
+删除当前模型
+退出登录</t>
+  </si>
+  <si>
+    <t>modelers-讨论区-创建公开模型创建评论关闭重启并删除</t>
+  </si>
+  <si>
+    <t>登录环境(a18801113053,liuyu!198)
+鼠标悬停在个人头像上
+悬停方式创建模型(gongyoumoxing4,公开模型,公开模型,mit)
+创建讨论(测试评论标题,测试评论内容)
+关闭讨论(测试评论标题)
+重启讨论(测试评论标题)
+删除当前模型
+退出登录</t>
+  </si>
+  <si>
+    <t>modelers-讨论区-创建公开模型创建讨论区编辑并删除</t>
+  </si>
+  <si>
+    <t>登录环境(a18801113053,liuyu!198)
+鼠标悬停在个人头像上
+悬停方式创建模型(gongyoumoxing5,公开模型,公开模型,mit)
+创建讨论(测试评论标题,测试评论内容)
+查看讨论(测试评论标题)
+编辑第一条讨论(编辑的讨论区一号)
+删除当前模型
+退出登录</t>
+  </si>
+  <si>
+    <t>modelers-讨论区-创建公开模型创建讨论区删除并删除</t>
+  </si>
+  <si>
+    <t>登录环境(a18801113053,liuyu!198)
+鼠标悬停在个人头像上
+悬停方式创建模型(gongyoumoxing6,公开模型,公开模型,mit)
+创建讨论(测试评论标题,测试评论内容)
+查看讨论(测试评论标题)
+编辑第一条讨论(编辑的讨论区一号)
+回复讨论(测试评论标题,测试回复内容)
+删除第二条讨论
+删除当前模型
+退出登录</t>
+  </si>
+  <si>
+    <t>modelers-讨论区-创建公开模型创建讨论区举报并删除</t>
+  </si>
+  <si>
+    <t>登录环境(a18801113053,liuyu!198)
+鼠标悬停在个人头像上
+悬停方式创建模型(gongyoumoxing7,公开模型,公开模型,mit)
+创建讨论(测试评论标题,测试评论内容)
+查看讨论(测试评论标题)
+编辑第一条讨论(编辑的讨论区一号)
+回复讨论(测试评论标题,测试回复内容)
+举报第二条讨论(测试举报内容)
+删除当前模型
+退出登录</t>
+  </si>
+  <si>
+    <t>modelers-讨论区-创建公开模型关闭讨论区再打开再删除</t>
+  </si>
+  <si>
+    <t>登录环境(a18801113053,liuyu!198)
+鼠标悬停在个人头像上
+悬停方式创建模型(gongyoumoxing8,公开模型,公开模型,mit)
+创建讨论(测试评论标题,测试评论内容)
+查看讨论(测试评论标题)
+编辑第一条讨论(编辑的讨论区一号)
+回复讨论(测试评论标题,测试回复内容)
+举报第二条讨论(测试举报内容)
+切换讨论区状态
+切换讨论区状态
+删除当前模型
+退出登录</t>
+  </si>
+  <si>
+    <t>modelers-个人中心-修改用户昵称</t>
+  </si>
+  <si>
+    <t>登录环境(a18801113053,liuyu!198)
+鼠标悬停在个人头像上
+进入个人中心
+修改用户昵称签名(测试昵称,测试签名)
+退出登录</t>
+  </si>
+  <si>
+    <t>modelers-个人中心-创建并删除Write令牌</t>
+  </si>
+  <si>
+    <t>登录环境(a18801113053,liuyu!198)
+鼠标悬停在个人头像上
+进入个人中心
+创建令牌(ceshilingpai,Write)
+删除最新创建的令牌
+退出登录</t>
+  </si>
+  <si>
+    <t>modelers-个人中心-创建并删除Read令牌</t>
+  </si>
+  <si>
+    <t>登录环境(a18801113053,liuyu!198)
+鼠标悬停在个人头像上
+进入个人中心
+创建令牌(ceshilingpai,Read)
+删除最新创建的令牌
+退出登录</t>
+  </si>
+  <si>
+    <t>modelers-个人中心-注销并取消注销</t>
+  </si>
+  <si>
+    <t>登录环境(a18801113053,liuyu!198)
+鼠标悬停在个人头像上
+进入个人中心
+注销并取消注销
+退出登录</t>
+  </si>
+  <si>
+    <t>modelers-个人中心-体验反馈</t>
+  </si>
+  <si>
+    <t>登录环境(a18801113053,liuyu!198)
+体验反馈</t>
+  </si>
+  <si>
+    <t>modelers-个人中心-收藏/取消收藏</t>
+  </si>
+  <si>
+    <t>登录环境(a18801113053,liuyu!198)
+鼠标悬停在个人头像上
+进入个人中心
+收藏并取消收藏
+退出登录</t>
+  </si>
+  <si>
+    <t>modelers-个人中心-修改用户头像</t>
+  </si>
+  <si>
+    <t>登录环境(a18801113053,liuyu!198)
+鼠标悬停在个人头像上
+进入个人中心
+修改用户头像(upload_images\abc1.png)
+修改用户头像(upload_images\abc2.png)
+退出登录</t>
   </si>
   <si>
     <t>创建公开模型并删除</t>
@@ -799,18 +750,12 @@
     </r>
   </si>
   <si>
-    <t>modelers-模型-创建公开模型改为私有并删除</t>
-  </si>
-  <si>
     <t>登录环境(a18801113053,liuyu!198)
 鼠标悬停在个人头像上
 悬停方式创建模型(gongyoumoxing,公开模型,公开模型,mit)
 修改当前模型私有
 删除当前模型
 退出登录</t>
-  </si>
-  <si>
-    <t>modelers-讨论区-创建公开模型创建评论回复并删除</t>
   </si>
   <si>
     <t>登录环境(a18801113053,liuyu!198)
@@ -822,9 +767,6 @@
 退出登录</t>
   </si>
   <si>
-    <t>modelers-讨论区-创建公开模型创建评论关闭并删除</t>
-  </si>
-  <si>
     <t>登录环境(a18801113053,liuyu!198)
 鼠标悬停在个人头像上
 悬停方式创建模型(gongyoumoxing,公开模型,公开模型,mit)
@@ -832,9 +774,6 @@
 关闭讨论(测试评论标题)
 删除当前模型
 退出登录</t>
-  </si>
-  <si>
-    <t>modelers-讨论区-创建公开模型创建评论关闭重启并删除</t>
   </si>
   <si>
     <t>登录环境(a18801113053,liuyu!198)
@@ -847,9 +786,6 @@
 退出登录</t>
   </si>
   <si>
-    <t>modelers-讨论区-创建公开模型创建讨论区编辑并删除</t>
-  </si>
-  <si>
     <t>登录环境(a18801113053,liuyu!198)
 鼠标悬停在个人头像上
 悬停方式创建模型(gongyoumoxing,公开模型,公开模型,mit)
@@ -858,9 +794,6 @@
 编辑第一条讨论(编辑的讨论区一号)
 删除当前模型
 退出登录</t>
-  </si>
-  <si>
-    <t>modelers-讨论区-创建公开模型创建讨论区删除并删除</t>
   </si>
   <si>
     <t>登录环境(a18801113053,liuyu!198)
@@ -875,9 +808,6 @@
 退出登录</t>
   </si>
   <si>
-    <t>modelers-讨论区-创建公开模型创建讨论区举报并删除</t>
-  </si>
-  <si>
     <t>登录环境(a18801113053,liuyu!198)
 鼠标悬停在个人头像上
 悬停方式创建模型(gongyoumoxing,公开模型,公开模型,mit)
@@ -888,9 +818,6 @@
 举报第二条讨论(测试举报内容)
 删除当前模型
 退出登录</t>
-  </si>
-  <si>
-    <t>modelers-讨论区-创建公开模型关闭讨论区再打开再删除</t>
   </si>
   <si>
     <t>登录环境(a18801113053,liuyu!198)
@@ -1018,66 +945,7 @@
 退出登录</t>
   </si>
   <si>
-    <t>modelers-个人中心-修改用户昵称</t>
-  </si>
-  <si>
-    <t>登录环境(a18801113053,liuyu!198)
-鼠标悬停在个人头像上
-进入个人中心
-修改用户昵称签名(测试昵称,测试签名)
-退出登录</t>
-  </si>
-  <si>
-    <t>modelers-个人中心-创建并删除Write令牌</t>
-  </si>
-  <si>
-    <t>登录环境(a18801113053,liuyu!198)
-鼠标悬停在个人头像上
-进入个人中心
-创建令牌(ceshilingpai,Write)
-删除最新创建的令牌
-退出登录</t>
-  </si>
-  <si>
-    <t>modelers-个人中心-创建并删除Read令牌</t>
-  </si>
-  <si>
-    <t>登录环境(a18801113053,liuyu!198)
-鼠标悬停在个人头像上
-进入个人中心
-创建令牌(ceshilingpai,Read)
-删除最新创建的令牌
-退出登录</t>
-  </si>
-  <si>
-    <t>modelers-个人中心-注销并取消注销</t>
-  </si>
-  <si>
-    <t>登录环境(a18801113053,liuyu!198)
-鼠标悬停在个人头像上
-进入个人中心
-注销并取消注销
-退出登录</t>
-  </si>
-  <si>
-    <t>modelers-个人中心-体验反馈</t>
-  </si>
-  <si>
-    <t>登录环境(a18801113053,liuyu!198)
-体验反馈</t>
-  </si>
-  <si>
     <t>modelers-个人中心-收藏并取消收藏</t>
-  </si>
-  <si>
-    <t>登录环境(a18801113053,liuyu!198)
-鼠标悬停在个人头像上
-进入个人中心
-收藏并取消收藏
-退出登录</t>
-  </si>
-  <si>
-    <t>modelers-个人中心-修改用户头像</t>
   </si>
   <si>
     <t>登录环境(a18801113053,liuyu!198)
@@ -1235,6 +1103,74 @@
 退出登录</t>
   </si>
   <si>
+    <t>软件中心-主页-软件中心-主页-搜索</t>
+  </si>
+  <si>
+    <t>进入生产环境
+主页搜索(全部,mysql)
+主页搜索(按名称,mq)
+主页搜索(按概要,mysq11l)
+主页搜索(按文件,222)
+主页搜索(ubuntu,30)</t>
+  </si>
+  <si>
+    <t>软件中心-主页-软件中心-主页-搜索无结果</t>
+  </si>
+  <si>
+    <t>进入生产环境
+主页搜索无结果(全部,222)</t>
+  </si>
+  <si>
+    <t>软件中心-主页-软件中心-主页-了解更多跳转验证</t>
+  </si>
+  <si>
+    <t>进入生产环境
+主页了解更多跳转(云服务)
+主页了解更多跳转(数据库)
+主页了解更多跳转(AI)
+主页了解更多跳转(大数据)
+主页了解更多跳转(HPC)
+主页了解更多跳转(分布式存储)
+主页了解更多跳转(其他)</t>
+  </si>
+  <si>
+    <t>软件中心-主页-软件中心-主页-资源跳转验证</t>
+  </si>
+  <si>
+    <t>进入生产环境
+主页获取资源跳转(领域应用)
+主页获取资源跳转(RPM)
+主页获取资源跳转(应用镜像)
+主页获取资源跳转(OEPKG)
+主页解决方案跳转(OpenStack)
+主页解决方案跳转(OpenHPC)</t>
+  </si>
+  <si>
+    <t>软件中心-主页-软件中心-主页-社区版本下载验证</t>
+  </si>
+  <si>
+    <t>进入生产环境
+主页资源下载(openEuler-24.03-LTS)</t>
+  </si>
+  <si>
+    <t>软件中心-主页-openEuler社区版本-点击跳转验证-1</t>
+  </si>
+  <si>
+    <t>进入生产环境
+主页选择openEuler软件包(openEuler-24.03-LTS,领域应用,noarch)
+主页选择openEuler软件包(openEuler-20.03-LTS-SP4,RPM,aarch64)</t>
+  </si>
+  <si>
+    <t>软件中心-主页-openEuler社区版本-点击跳转验证-2</t>
+  </si>
+  <si>
+    <t>进入生产环境
+主页选择openEuler软件包(openEuler-22.03-LTS-SP2,RPM,noarch)</t>
+  </si>
+  <si>
+    <t>软件中心-应用领域-搜索和下载</t>
+  </si>
+  <si>
     <t>进入生产环境
 进入领域应用
 领域应用页面选择版本架构和领域(openEuler-22.03-LTS,x86_64,AI|云服务|大数据)
@@ -1246,6 +1182,9 @@
 领域应用页面查询结果详情(libnetwork/x86_64)</t>
   </si>
   <si>
+    <t>软件中心-RPM-搜索和下载</t>
+  </si>
+  <si>
     <t>进入生产环境
 进入RPM页面
 RPM页面选择版本架构和领域(openEuler-23.09,x86_64,AI|其他)
@@ -1257,6 +1196,9 @@
 RPM页面查询结果详情(gromacs-libs)</t>
   </si>
   <si>
+    <t>软件中心-应用镜像-搜索和复制</t>
+  </si>
+  <si>
     <t>进入生产环境
 进入应用镜像页面
 应用镜像页面选择版本架构和领域(openEuler-22.03-LTS-SP3,x86_64|aarch64,AI|其他|云服务|数据库)
@@ -1268,6 +1210,9 @@
 应用镜像页面查询结果详情(mlflow)</t>
   </si>
   <si>
+    <t>软件中心-OEPKG-搜索和下载</t>
+  </si>
+  <si>
     <t>进入生产环境
 进入OEPKG页面
 OEPKG页面选择版本架构和领域(openEuler-24.03-LTS,x86_64,其他)
@@ -1279,28 +1224,133 @@
 OEPKG页面查询结果详情(admesh)</t>
   </si>
   <si>
-    <t>modelers-账号功能-登录功能正常</t>
-  </si>
-  <si>
-    <t>首次登录环境(a18801113053,liuyu!198)</t>
-  </si>
-  <si>
-    <t>modelers-账号功能-登录后退出登录正常</t>
-  </si>
-  <si>
-    <t>登录环境(a18801113053,liuyu!198)
-退出登录</t>
-  </si>
-  <si>
-    <t>modelers-个人中心-收藏/取消收藏</t>
-  </si>
-  <si>
-    <t>登录环境(a18801113053,liuyu!198)
-鼠标悬停在个人头像上
-进入个人中心
-修改用户头像(upload_images\abc1.png)
-修改用户头像(upload_images\abc2.png)
-退出登录</t>
+    <t>软件中心-软件包详情-快速反馈</t>
+  </si>
+  <si>
+    <t>进入生产环境
+进入OEPKG页面
+OEPKG页面选择版本架构和领域(openEuler-24.03-LTS,x86_64,其他)
+OEPKG页面搜索(m)
+OEPKG页面查询结果排序(按首字母)
+OEPKG页面查询结果排序(综合排序)
+OEPKG页面查询结果分页(40条/页)
+OEPKG页面查询结果切页(6)
+OEPKG页面查询结果详情(m)
+软件包详情页面下载
+软件包详情页面反馈(3,测试反馈,快速反馈)</t>
+  </si>
+  <si>
+    <t>软件中心-软件包详情-提交issue</t>
+  </si>
+  <si>
+    <t>进入生产环境
+进入OEPKG页面
+OEPKG页面选择版本架构和领域(openEuler-24.03-LTS,x86_64,其他)
+OEPKG页面搜索(m)
+OEPKG页面查询结果排序(按首字母)
+OEPKG页面查询结果排序(综合排序)
+OEPKG页面查询结果分页(40条/页)
+OEPKG页面查询结果切页(6)
+OEPKG页面查询结果详情(m)
+软件包详情页面下载
+软件包详情页面反馈(5,测试反馈,提交issue)</t>
+  </si>
+  <si>
+    <t>软件中心-主页-悬浮窗反馈</t>
+  </si>
+  <si>
+    <t>进入生产环境
+主页登录(18048976612,675912zl.@)
+主页悬浮窗反馈(5,测试反馈)</t>
+  </si>
+  <si>
+    <t>软件中心-协作平台-反馈后撤销</t>
+  </si>
+  <si>
+    <t>进入生产环境
+主页登录(18048976612,675912zl.@)
+进入协作平台
+协作平台反馈(Bear,测试反馈内容)
+进入待办中心
+撤销申请(Bear)</t>
+  </si>
+  <si>
+    <t>软件中心-协作平台-反馈历史</t>
+  </si>
+  <si>
+    <t>进入生产环境
+主页登录(18048976612,675912zl.@)
+进入协作平台
+协作平台反馈历史(Bear)</t>
+  </si>
+  <si>
+    <t>软件中心-协作平台-审批通过</t>
+  </si>
+  <si>
+    <t>进入生产环境
+主页登录(18048976612,675912zl.@)
+进入协作平台
+协作平台反馈(Bear,测试反馈内容)
+进入待办中心
+审批通过(Bear,测试通过申请)</t>
+  </si>
+  <si>
+    <t>软件中心-协作平台-审批不通过</t>
+  </si>
+  <si>
+    <t xml:space="preserve">进入生产环境
+主页登录(18048976612,675912zl.@)
+进入协作平台
+协作平台反馈(Bear,测试反馈内容)
+进入待办中心
+审批不通过(Bear,测试不通过申请)
+</t>
+  </si>
+  <si>
+    <t>软件中心-协作平台-申请详情</t>
+  </si>
+  <si>
+    <t>进入生产环境
+主页登录(18048976612,675912zl.@)
+进入协作平台
+进入待办中心
+查看申请详情(Bear)</t>
+  </si>
+  <si>
+    <t>软件中心-协作平台-审批详情</t>
+  </si>
+  <si>
+    <t xml:space="preserve">进入生产环境
+主页登录(18048976612,675912zl.@)
+进入协作平台
+进入待办中心
+查看审批详情
+</t>
+  </si>
+  <si>
+    <t>软件中心-协作平台-软件仓库筛选和重置</t>
+  </si>
+  <si>
+    <t>进入生产环境
+主页登录(18048976612,675912zl.@)
+进入协作平台
+软件仓库筛选重置(xdg-dbus-proxy)
+软件仓库筛选重置(aries-blueprint-parser)
+软件仓库筛选重置(rdiff-backup)
+软件仓库筛选重置(lksctp-tools)</t>
+  </si>
+  <si>
+    <t>软件中心-协作平台-待办中心筛选和重置</t>
+  </si>
+  <si>
+    <t>进入生产环境
+主页登录(18048976612,675912zl.@)
+进入协作平台
+进入待办中心
+待办中心筛选重置(ranger)
+待办中心筛选重置(R-knitr)
+待办中心筛选重置(python-cairosvg)
+待办中心筛选重置(Bear)</t>
   </si>
 </sst>
 </file>
@@ -2274,10 +2324,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="89" customHeight="1" outlineLevelCol="1"/>
@@ -2295,180 +2345,148 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="131" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="3" t="s">
+    <row r="5" ht="145" customHeight="1" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="3" t="s">
+    <row r="6" ht="145" customHeight="1" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="3" t="s">
+    <row r="7" ht="145" customHeight="1" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="3" t="s">
+    <row r="8" ht="145" customHeight="1" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="172" customHeight="1" spans="1:2">
-      <c r="A9" s="3" t="s">
+    <row r="9" ht="145" customHeight="1" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="145" customHeight="1" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="162" customHeight="1" spans="1:2">
-      <c r="A11" s="3" t="s">
+    <row r="11" ht="210" customHeight="1" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="176" customHeight="1" spans="1:2">
-      <c r="A12" s="3" t="s">
+    <row r="12" ht="180" customHeight="1" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="192" customHeight="1" spans="1:2">
-      <c r="A13" s="3" t="s">
+    <row r="13" customHeight="1" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="210" customHeight="1" spans="1:2">
-      <c r="A14" s="3" t="s">
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="140" customHeight="1" spans="1:2">
+    <row r="19" customHeight="1" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:2">
-      <c r="A22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:2">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2483,8 +2501,8 @@
   <sheetPr/>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="316" customHeight="1" outlineLevelCol="2"/>
@@ -2496,301 +2514,301 @@
   <sheetData>
     <row r="1" ht="126" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" ht="145" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="145" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" ht="128" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" ht="136" customHeight="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" ht="143" customHeight="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" ht="172" customHeight="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" ht="159" customHeight="1" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" ht="189" customHeight="1" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" ht="121" customHeight="1" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" ht="105" customHeight="1" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" ht="100" customHeight="1" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" ht="134" customHeight="1" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" ht="170" customHeight="1" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" ht="154" customHeight="1" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" ht="83" customHeight="1" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" ht="109" customHeight="1" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" ht="159" customHeight="1" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" ht="157" customHeight="1" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" ht="97" customHeight="1" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" ht="97" customHeight="1" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" ht="97" customHeight="1" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" ht="106" customHeight="1" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" ht="106" customHeight="1" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" ht="106" customHeight="1" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" ht="106" customHeight="1" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="136" customHeight="1" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" ht="129" customHeight="1" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" ht="136" customHeight="1" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" ht="139" customHeight="1" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
       <c r="A35" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2805,8 +2823,8 @@
   <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B22"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2815,260 +2833,260 @@
     <col min="2" max="2" width="132.558333333333" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="81" spans="1:2">
+    <row r="1" ht="105" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" ht="94.5" spans="1:2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" ht="144" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" ht="94.5" spans="1:2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" ht="144" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" ht="108" spans="1:2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" ht="156" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" ht="108" spans="1:2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" ht="143" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" ht="135" spans="1:2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" ht="176" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" ht="135" spans="1:2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" ht="182" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" ht="162" spans="1:2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" ht="184" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" ht="94.5" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" ht="81" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" ht="81" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" ht="94.5" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" ht="54" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" ht="94.5" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" ht="135" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" ht="189" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" ht="67.5" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>151</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="81" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="81" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="67.5" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="67.5" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="67.5" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" ht="270" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" ht="270" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" ht="283.5" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" ht="256.5" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" ht="81" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" ht="81" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" ht="108" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" ht="108" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3095,178 +3113,178 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>152</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3278,10 +3296,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B10"/>
+  <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39" customHeight="1" outlineLevelCol="1"/>
@@ -3292,74 +3310,82 @@
   <sheetData>
     <row r="2" ht="46" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" ht="45" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>187</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="90" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" ht="104" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" ht="98" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" ht="88" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="112" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" ht="118" customHeight="1" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>189</v>
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
